--- a/smoc-admin-ui/src/main/resources/static/files/register/cmcc.xlsx
+++ b/smoc-admin-ui/src/main/resources/static/files/register/cmcc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="结算单" sheetId="1" r:id="rId1"/>
@@ -375,13 +375,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="7">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd;@"/>
+    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -425,14 +426,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -445,40 +468,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -489,28 +496,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -529,22 +514,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -553,10 +522,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -567,6 +553,21 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -601,37 +602,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,55 +752,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -703,85 +782,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -845,24 +846,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -878,17 +861,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -902,17 +885,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -934,6 +917,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -942,16 +934,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -960,137 +961,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1173,6 +1174,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1534,7 +1536,7 @@
   <sheetPr/>
   <dimension ref="A1:AB176"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="N2" workbookViewId="0">
       <selection activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
@@ -1733,7 +1735,7 @@
         <v>41</v>
       </c>
       <c r="AA3" s="9"/>
-      <c r="AB3" s="30" t="s">
+      <c r="AB3" s="31" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1918,13 +1920,13 @@
       <c r="F6" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="G6" s="31" t="s">
+      <c r="G6" s="32" t="s">
         <v>66</v>
       </c>
       <c r="H6" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="I6" s="31" t="s">
+      <c r="I6" s="32" t="s">
         <v>68</v>
       </c>
       <c r="J6" s="14" t="s">
@@ -1942,7 +1944,7 @@
       <c r="N6" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="O6" s="31" t="s">
+      <c r="O6" s="32" t="s">
         <v>74</v>
       </c>
       <c r="P6" s="14" t="s">
@@ -1954,7 +1956,7 @@
       <c r="R6" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="S6" s="31" t="s">
+      <c r="S6" s="32" t="s">
         <v>77</v>
       </c>
       <c r="T6" s="14" t="s">
@@ -2049,10 +2051,10 @@
       <c r="U7" t="s">
         <v>104</v>
       </c>
-      <c r="V7" t="s">
+      <c r="V7" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="W7" t="s">
+      <c r="W7" s="30" t="s">
         <v>106</v>
       </c>
       <c r="X7" t="s">

--- a/smoc-admin-ui/src/main/resources/static/files/register/cmcc.xlsx
+++ b/smoc-admin-ui/src/main/resources/static/files/register/cmcc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11940"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="结算单" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="110">
   <si>
     <t xml:space="preserve">待系统上线后，表格上传至系统平台的注意事项：
 1、对应的图片请单独存放，直接压缩成zip文件（不要将图片放入文件夹以后再压缩，应将图片批量直接压缩），每个图片大小不能超过100KB，建议每次图片压缩包不超过50M数据；
@@ -359,9 +359,6 @@
     <t>{rd.authorizeEnd}</t>
   </si>
   <si>
-    <t>{rd.serviceType}</t>
-  </si>
-  <si>
     <t>{rd.mainApplication}</t>
   </si>
   <si>
@@ -376,13 +373,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy/mm/dd;@"/>
-    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd;@"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -426,14 +423,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -453,6 +443,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -461,31 +458,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -499,24 +474,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -527,6 +486,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -548,7 +515,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -563,7 +546,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -602,67 +599,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -674,115 +779,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -861,30 +858,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -896,6 +869,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -915,11 +906,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -934,25 +940,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -961,16 +958,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -979,119 +976,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1100,7 +1097,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1146,14 +1143,14 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1162,19 +1159,22 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1537,7 +1537,7 @@
   <dimension ref="A1:AB176"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="N2" workbookViewId="0">
-      <selection activeCell="W7" sqref="W7"/>
+      <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1564,7 +1564,7 @@
     <col min="21" max="21" width="16.7583333333333" customWidth="1"/>
     <col min="22" max="22" width="17.4916666666667" customWidth="1"/>
     <col min="23" max="23" width="17.2083333333333" customWidth="1"/>
-    <col min="24" max="24" width="16.325" customWidth="1"/>
+    <col min="24" max="24" width="18.9666666666667" customWidth="1"/>
     <col min="25" max="25" width="23.975" customWidth="1"/>
     <col min="26" max="26" width="16.025" customWidth="1"/>
     <col min="27" max="27" width="14.5583333333333" customWidth="1"/>
@@ -1735,7 +1735,7 @@
         <v>41</v>
       </c>
       <c r="AA3" s="9"/>
-      <c r="AB3" s="31" t="s">
+      <c r="AB3" s="32" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1920,13 +1920,13 @@
       <c r="F6" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="G6" s="32" t="s">
+      <c r="G6" s="33" t="s">
         <v>66</v>
       </c>
       <c r="H6" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="I6" s="32" t="s">
+      <c r="I6" s="33" t="s">
         <v>68</v>
       </c>
       <c r="J6" s="14" t="s">
@@ -1944,7 +1944,7 @@
       <c r="N6" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="O6" s="32" t="s">
+      <c r="O6" s="33" t="s">
         <v>74</v>
       </c>
       <c r="P6" s="14" t="s">
@@ -1956,7 +1956,7 @@
       <c r="R6" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="S6" s="32" t="s">
+      <c r="S6" s="33" t="s">
         <v>77</v>
       </c>
       <c r="T6" s="14" t="s">
@@ -2057,20 +2057,20 @@
       <c r="W7" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="X7" t="s">
+      <c r="X7" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y7" t="s">
         <v>107</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>108</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB7" t="s">
         <v>109</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="8" ht="23" customHeight="1" spans="2:9">

--- a/smoc-admin-ui/src/main/resources/static/files/register/cmcc.xlsx
+++ b/smoc-admin-ui/src/main/resources/static/files/register/cmcc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="结算单" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="111">
   <si>
     <t xml:space="preserve">待系统上线后，表格上传至系统平台的注意事项：
 1、对应的图片请单独存放，直接压缩成zip文件（不要将图片放入文件夹以后再压缩，应将图片批量直接压缩），每个图片大小不能超过100KB，建议每次图片压缩包不超过50M数据；
@@ -306,6 +306,9 @@
   </si>
   <si>
     <t>{rd.accessProvince}</t>
+  </si>
+  <si>
+    <t>{rd.accessCity}</t>
   </si>
   <si>
     <t>{rd.numberSegment}</t>
@@ -377,9 +380,9 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/mm/dd;@"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy/mm/dd;@"/>
+    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1097,7 +1100,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1143,14 +1146,14 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1159,19 +1162,19 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1536,8 +1539,8 @@
   <sheetPr/>
   <dimension ref="A1:AB176"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="N2" workbookViewId="0">
-      <selection activeCell="X7" sqref="X7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1547,7 +1550,7 @@
     <col min="3" max="3" width="15.375" customWidth="1"/>
     <col min="4" max="4" width="18.875" customWidth="1"/>
     <col min="5" max="5" width="15.75" customWidth="1"/>
-    <col min="6" max="6" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="22.7916666666667" customWidth="1"/>
     <col min="7" max="7" width="17.125" customWidth="1"/>
     <col min="8" max="8" width="16" style="4" customWidth="1"/>
     <col min="9" max="9" width="17.6416666666667" style="5" customWidth="1"/>
@@ -2004,73 +2007,73 @@
         <v>89</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="U7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="V7" s="30" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="W7" s="30" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="X7" s="31" t="s">
         <v>80</v>
       </c>
       <c r="Y7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Z7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AA7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AB7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" ht="23" customHeight="1" spans="2:9">

--- a/smoc-admin-ui/src/main/resources/static/files/register/cmcc.xlsx
+++ b/smoc-admin-ui/src/main/resources/static/files/register/cmcc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="结算单" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="112">
   <si>
     <t xml:space="preserve">待系统上线后，表格上传至系统平台的注意事项：
 1、对应的图片请单独存放，直接压缩成zip文件（不要将图片放入文件夹以后再压缩，应将图片批量直接压缩），每个图片大小不能超过100KB，建议每次图片压缩包不超过50M数据；
@@ -360,6 +360,9 @@
   </si>
   <si>
     <t>{rd.authorizeEnd}</t>
+  </si>
+  <si>
+    <t>{rd.serviceType}</t>
   </si>
   <si>
     <t>{rd.mainApplication}</t>
@@ -382,7 +385,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd;@"/>
-    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1539,8 +1542,8 @@
   <sheetPr/>
   <dimension ref="A1:AB176"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="K4" workbookViewId="0">
+      <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2061,19 +2064,19 @@
         <v>107</v>
       </c>
       <c r="X7" s="31" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="Y7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Z7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AA7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AB7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" ht="23" customHeight="1" spans="2:9">

--- a/smoc-admin-ui/src/main/resources/static/files/register/cmcc.xlsx
+++ b/smoc-admin-ui/src/main/resources/static/files/register/cmcc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="11940"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="结算单" sheetId="1" r:id="rId1"/>
@@ -378,14 +378,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="6">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy/mm/dd;@"/>
-    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd;@"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1094,7 +1093,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1103,7 +1102,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1149,14 +1148,14 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1165,19 +1164,18 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1542,8 +1540,8 @@
   <sheetPr/>
   <dimension ref="A1:AB176"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="K4" workbookViewId="0">
-      <selection activeCell="X7" sqref="X7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="P4" workbookViewId="0">
+      <selection activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1741,7 +1739,7 @@
         <v>41</v>
       </c>
       <c r="AA3" s="9"/>
-      <c r="AB3" s="32" t="s">
+      <c r="AB3" s="31" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1926,13 +1924,13 @@
       <c r="F6" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="G6" s="33" t="s">
+      <c r="G6" s="32" t="s">
         <v>66</v>
       </c>
       <c r="H6" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="I6" s="33" t="s">
+      <c r="I6" s="32" t="s">
         <v>68</v>
       </c>
       <c r="J6" s="14" t="s">
@@ -1950,7 +1948,7 @@
       <c r="N6" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="O6" s="33" t="s">
+      <c r="O6" s="32" t="s">
         <v>74</v>
       </c>
       <c r="P6" s="14" t="s">
@@ -1962,7 +1960,7 @@
       <c r="R6" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="S6" s="33" t="s">
+      <c r="S6" s="32" t="s">
         <v>77</v>
       </c>
       <c r="T6" s="14" t="s">
@@ -2057,13 +2055,13 @@
       <c r="U7" t="s">
         <v>105</v>
       </c>
-      <c r="V7" s="30" t="s">
+      <c r="V7" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="W7" s="30" t="s">
+      <c r="W7" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="X7" s="31" t="s">
+      <c r="X7" s="30" t="s">
         <v>108</v>
       </c>
       <c r="Y7" t="s">
